--- a/biology/Médecine/Antre_mastoïdien/Antre_mastoïdien.xlsx
+++ b/biology/Médecine/Antre_mastoïdien/Antre_mastoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antre_masto%C3%AFdien</t>
+          <t>Antre_mastoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'antre mastoïdien (ou antre pétreux ou antre tympanique) est une volumineuse cavité située dans la partie pétreuse de l'os temporal. Il communique en arrière avec les cellules mastoïdiennes et en avant avec le récessus épitympanique de l'oreille moyenne via l'aditus ad antrum.
 L'antre et les cellules mastoïdiennes sont tapissées d'une membrane muqueuse, en continuité avec celle qui tapisse la cavité tympanique.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antre_masto%C3%AFdien</t>
+          <t>Antre_mastoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces cellules aériennes fonctionnent comme un récepteur sonore agissant comme résonateur et dissipateur acoustique, offrant une protection contre les dommages physiques liés aux ondes sonores
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antre_masto%C3%AFdien</t>
+          <t>Antre_mastoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système des cellules mastoïdiennes et de l'antre mastoïdien est un contributeur majeur aux maladies inflammatoires de l'oreille moyenne[1]. Leur infection donnant une mastoïdite.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système des cellules mastoïdiennes et de l'antre mastoïdien est un contributeur majeur aux maladies inflammatoires de l'oreille moyenne. Leur infection donnant une mastoïdite.
 </t>
         </is>
       </c>
